--- a/data/San Esteban.xlsx
+++ b/data/San Esteban.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/San Esteban.xlsx
+++ b/data/San Esteban.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Esteban.xlsx
+++ b/data/San Esteban.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OPTIMIZACIÓN MINERA DIVISIÓN ANDINA</t>
+          <t>DISTRIBUCIÓN DE ANHIDRIDO SULFUROSO ENTRE LAS REGIONES V, VI, VII Y METROPOLITANA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Codelco</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>150000</v>
+        <v>30</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/06/2021</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152000654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154728377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico San Esteban</t>
+          <t>OPTIMIZACIÓN MINERA DIVISIÓN ANDINA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OPDE CHILE SPA</t>
+          <t>Codelco</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9000</v>
+        <v>150000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>10/06/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151175219&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152000654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Andrómeda 2</t>
+          <t>Parque Fotovoltaico San Esteban</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>OPDE CHILE SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>25/02/2021</t>
+          <t>22/03/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870379&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151175219&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto Pepper</t>
+          <t>Parque Fotovoltaico Andrómeda 2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FQM Exploration (Chile) S.A.</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>01/09/2020</t>
+          <t>25/02/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147965483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150870379&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Solar El Triunfo</t>
+          <t>Proyecto Pepper</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Blue Solar Ocho SpA</t>
+          <t>FQM Exploration (Chile) S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>9450</v>
+        <v>15000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>25/06/2020</t>
+          <t>01/09/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146943011&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147965483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Solar El Triunfo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -674,20 +674,20 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Blue Solar Ocho SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4000</v>
+        <v>9450</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>25/06/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146943011&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Depósito de Relaves Pimentón</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -722,20 +722,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Minera Tamidak Limitada</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/06/2019</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143391563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Solar Liquidambar</t>
+          <t>Depósito de Relaves Pimentón</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CVE Proyecto Siete SpA</t>
+          <t>Minera Tamidak Limitada</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>24/06/2019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142530409&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143391563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Parque Solar Liquidambar</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>CVE Proyecto Siete SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>12000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142530409&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -875,21 +875,21 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Modificación Planta de Tratamiento de Residuos Industriales Líquidos de Viña San Esteban S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>VIÑA SAN ESTEBAN S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132396263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Modificación Planta de Tratamiento de Residuos Industriales Líquidos de Viña San Esteban S.A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>VIÑA SAN ESTEBAN S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>20000</v>
+        <v>63</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/06/2017</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132396263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Riles Para Planta Procesadora de Pasas San Esteban</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Redondo S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130356899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Sistema de Tratamiento de Riles Para Planta Procesadora de Pasas San Esteban</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Redondo S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5000</v>
+        <v>40</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130356899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1455,17 +1455,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,11 +1591,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1604,12 +1604,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Cambio del terreno para la disposición del efluente del sistema de tratamiento de riles de INMOBILIARIA ANJARI</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Inmobiliaria Anjarí Ltda.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>40</v>
+        <v>2050</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>22/03/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7969769&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Cambio del terreno para la disposición del efluente del sistema de tratamiento de riles de INMOBILIARIA ANJARI</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>Inmobiliaria Anjarí Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1500</v>
+        <v>40</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>22/03/2013</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7969769&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EXPANSIÓN ANDINA 244 .</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Corporación Nacional del Cobre, División Andina</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>6.8</v>
+        <v>1500</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>04/01/2013</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,12 +1960,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>EXPANSIÓN ANDINA 244 .</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Corporación Nacional del Cobre, División Andina</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>15000</v>
+        <v>6.8</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>04/01/2013</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7674601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,17 +2079,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Miguel Bianchini y CIA Ltda.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Miguel Bianchini y CIA Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>01/06/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva"</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Miguel Bianchini y CIA Ltda.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Miguel Bianchini y CIA Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>9000</v>
+        <v>65</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/05/2011</t>
+          <t>01/06/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Transporte de Cal Viva"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>11/05/2011</t>
+          <t>30/05/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Miguel Bianchini y CIA Ltda.</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Miguel Bianchini y CIA Ltda.</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>65</v>
+        <v>9000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>28/04/2011</t>
+          <t>11/05/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540884&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Miguel Bianchini y CIA Ltda.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Miguel Bianchini y CIA Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>250</v>
+        <v>65</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>28/04/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540884&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Miguel Bianchini y CIA Ltda.</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Miguel Bianchini y CIA Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>65</v>
+        <v>12000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>21/02/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5271220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Planta de Tratamiento de RILes mediante Sistema Tohá® Miguel Bianchini y CIA Ltda.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Miguel Bianchini y CIA Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>19000</v>
+        <v>65</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>21/02/2011</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5271220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Prospección West Wall</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>COMPAÑÍA MINERA WEST WALL S.C.M</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>40000</v>
+        <v>19000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>18/10/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006606&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>Prospección West Wall</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>COMPAÑÍA MINERA WEST WALL S.C.M</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>17700</v>
+        <v>40000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>18/10/2010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5006606&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>563</v>
+        <v>17700</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1750</v>
+        <v>563</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Declaración Impacto Ambiental Proyecto Sistema de Tratamiento de Riles Redondo S.A.</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Redondo S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09/04/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4488202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Declaración Impacto Ambiental Proyecto Sistema de Tratamiento de Riles Redondo S.A.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,30 +3314,30 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Redondo S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>4050</v>
+        <v>50000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>09/04/2010</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4488202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>429</v>
+        <v>1750</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial de San Esteban S.A., V Región (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VIÑA SAN ESTEBAN S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2297669&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos para la Planta Industrial de San Esteban S.A., V Región (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>VIÑA SAN ESTEBAN S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2297669&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DIA de Planta de Tratamiento de RILes de Viña San Esteban S.A. (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>VIÑA SAN ESTEBAN S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>08/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1832740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>DIA de Planta de Tratamiento de RILes de Viña San Esteban S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>VIÑA SAN ESTEBAN S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/06/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1832740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,40 +4408,40 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>EMBALSE PUNTILLA DEL VIENTO</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>115000</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>27/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Caducado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922537&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,40 +4456,40 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>EMBALSE PUNTILLA DEL VIENTO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>115000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>27/12/2006</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1922537&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Proyecto MDL: Mejoramiento de Tratamiento de Purines de Cerdo Mediante Biodigestor Anaeróbico AgCert, Plantel Porcino Aguas Claras, V Región (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,12 +4658,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Agrícola AASA S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4671,17 +4671,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>06/10/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1720329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 Ch Sector 1 Los Andes - Panquehue V Región</t>
+          <t>Proyecto MDL: Mejoramiento de Tratamiento de Purines de Cerdo Mediante Biodigestor Anaeróbico AgCert, Plantel Porcino Aguas Claras, V Región (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
+          <t>Agrícola AASA S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>06/09/2006</t>
+          <t>06/10/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1720329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,30 +4744,30 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 Ch Sector 1 Los Andes - Panquehue V Región</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>06/09/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,40 +4792,40 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 CH Sector 1 Los Andes - Panquehue V Región</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20000</v>
+        <v>80</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>23/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1485343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,40 +4840,40 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 CH Sector 1 Los Andes - Panquehue V Región</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>80</v>
+        <v>20000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>23/06/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1485343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sifón Río Aconcagua Sector San Esteban (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>02/05/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1425286&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Sifón Río Aconcagua Sector San Esteban (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,20 +4946,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>500</v>
+        <v>217</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>02/05/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1425286&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES DE PROCESAMIENTO DE PASAS AGROCOMERCIAL ANJARI (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Inmobiliaria Anjarí Ltda.</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>16/11/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096589&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES DE PROCESAMIENTO DE PASAS AGROCOMERCIAL ANJARI (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Inmobiliaria Anjarí Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>16/11/2005</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1096589&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Centro de Reciclaje Orgánico Andino (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Gestión Ambiente S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/10/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Centro de Reciclaje Orgánico Andino (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Gestión Ambiente S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>07/10/2005</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1052307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Antepuerto Provisorio Aduana de Los Andes Sector Primera Quebrada Comuna San Esteban</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5714,30 +5714,30 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>MERCOTRANS LTDA.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>31/10/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Particular del Comité de Programas Habitacionales y Sociales Villa Los Nogales</t>
+          <t>Antepuerto Provisorio Aduana de Los Andes Sector Primera Quebrada Comuna San Esteban</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Comité de Programas Habitacionales y Sociales Villa Los Nogales</t>
+          <t>MERCOTRANS LTDA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>26/03/2002</t>
+          <t>31/10/2002</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Sistema de Alcantarillado Particular del Comité de Programas Habitacionales y Sociales Villa Los Nogales</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,20 +5810,20 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>Comité de Programas Habitacionales y Sociales Villa Los Nogales</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>26/03/2002</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5267&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,12 +5896,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Expansión División Andina</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>650000</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Expansión División Andina</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Codelco División Andina</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>3500</v>
+        <v>650000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,30 +5992,30 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado de El Higueral</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Esteban</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>560</v>
+        <v>3500</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>20/12/1999</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Instalación Sistema de Alcantarillado de Lo Calvo</t>
+          <t>Instalación Sistema de Alcantarillado de El Higueral</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6059,7 +6059,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>820</v>
+        <v>560</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Nevados de San Esteban</t>
+          <t>Instalación Sistema de Alcantarillado de Lo Calvo</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Igel S.A.</t>
+          <t>I. Municipalidad de San Esteban</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1500</v>
+        <v>820</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>05/10/1999</t>
+          <t>20/12/1999</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Embalse Vizcachas</t>
+          <t>Nevados de San Esteban</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Colbún S.A.</t>
+          <t>Igel S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>18/05/1999</t>
+          <t>05/10/1999</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Diseño de Sanamiento Sanitario Valle Nevado</t>
+          <t>Embalse Vizcachas</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Comité Habitacional Valle Nevado</t>
+          <t>Colbún S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>23/06/1998</t>
+          <t>18/05/1999</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1153&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,43 +6232,91 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>Diseño de Sanamiento Sanitario Valle Nevado</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Comité Habitacional Valle Nevado</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>80</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>23/06/1998</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1153&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>San Esteban</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
           <t>Conjunto Habitacional Las Camelias</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>Quinta</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>Comité de Progreso Habitacional y Social Las Camelias</t>
         </is>
       </c>
-      <c r="F123" t="n">
+      <c r="F124" t="n">
         <v>620</v>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>02/12/1997</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I123" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=963&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>San Esteban</t>
         </is>

--- a/data/San Esteban.xlsx
+++ b/data/San Esteban.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Esteban.xlsx
+++ b/data/San Esteban.xlsx
@@ -5959,7 +5959,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F117" t="n">
